--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P15_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P15_trail5 Features.xlsx
@@ -4063,7 +4063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4075,28 +4075,26 @@
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4117,115 +4115,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4242,72 +4230,66 @@
         <v>2.087340335872864e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.7076703496382294</v>
+        <v>1.048989661569375e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.3864842417739656</v>
+        <v>5.222314544690575e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.048989661569375e-06</v>
+        <v>-0.05232688299014865</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.222314544690575e-06</v>
+        <v>0.2106256892040345</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.05232688299014865</v>
+        <v>0.04702127382124693</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2106256892040345</v>
+        <v>1.849744171264546</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.04702127382124693</v>
+        <v>1.875107738930358</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.818660845784152</v>
+        <v>4.913076591907932</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.875107738930358</v>
+        <v>3.778138065110705e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.913076591907932</v>
+        <v>129223012.1090116</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.778138065110705e-15</v>
+        <v>9.187436926845187e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>129223012.1090116</v>
+        <v>63.08956664375352</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>9.187436926845187e-07</v>
+        <v>0.0001518013724305365</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>63.08956664375352</v>
+        <v>11.12738846046964</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001518013724305365</v>
+        <v>1.114192582054119</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11.12738846046964</v>
+        <v>0.01879585981830566</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.114192582054119</v>
+        <v>2.920308353159692</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01879585981830566</v>
+        <v>0.9590521763994603</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.920308353159692</v>
+        <v>1.529313017302136</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9590521763994603</v>
+        <v>33</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.529313017302136</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.4250021516068336</v>
       </c>
     </row>
@@ -4322,72 +4304,66 @@
         <v>1.897963676730245e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.3108907249224395</v>
+        <v>8.45266623001395e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.8523318904694079</v>
+        <v>5.213167481397474e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>8.45266623001395e-07</v>
+        <v>-0.0399148768257049</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>5.213167481397474e-06</v>
+        <v>0.1897805644633727</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.0399148768257049</v>
+        <v>0.03755336678430003</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1897805644633727</v>
+        <v>1.84691369952546</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03755336678430003</v>
+        <v>2.07845446379475</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.824420979519961</v>
+        <v>4.776888968772973</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.07845446379475</v>
+        <v>3.996636034053913e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.776888968772973</v>
+        <v>121538122.6767213</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.996636034053913e-15</v>
+        <v>9.758335752451548e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>121538122.6767213</v>
+        <v>59.03637018080759</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>9.758335752451548e-07</v>
+        <v>0.0001643785652083118</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>59.03637018080759</v>
+        <v>9.480630007360343</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001643785652083118</v>
+        <v>1.285758447253621</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.480630007360343</v>
+        <v>0.01477473096396552</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.285758447253621</v>
+        <v>2.947874553220267</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01477473096396552</v>
+        <v>0.9582244761655412</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.947874553220267</v>
+        <v>1.529871884934369</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9582244761655412</v>
+        <v>26</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.529871884934369</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.3910897330007584</v>
       </c>
     </row>
@@ -4402,72 +4378,66 @@
         <v>1.786438608626066e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.08919696807369747</v>
+        <v>6.896845861789545e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.409666831921006</v>
+        <v>5.206892176505461e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.896845861789545e-07</v>
+        <v>-0.02863561984919687</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.206892176505461e-06</v>
+        <v>0.1700703216549095</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.02863561984919687</v>
+        <v>0.02970647689852619</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1700703216549095</v>
+        <v>1.863766398479937</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02970647689852619</v>
+        <v>1.803911189448174</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.847616859594117</v>
+        <v>5.073452906891671</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.803911189448174</v>
+        <v>2.610166236657592e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.073452906891671</v>
+        <v>176573277.0209225</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.610166236657592e-15</v>
+        <v>6.726740897631674e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>176573277.0209225</v>
+        <v>81.3800817789559</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>6.726740897631674e-07</v>
+        <v>0.0001397766819166504</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>81.3800817789559</v>
+        <v>8.613179333998435</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001397766819166504</v>
+        <v>1.383876511929094</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.613179333998435</v>
+        <v>0.01036959288655469</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.383876511929094</v>
+        <v>3.113551606174909</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01036959288655469</v>
+        <v>0.9570878674315105</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.113551606174909</v>
+        <v>1.537414139366124</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9570878674315105</v>
+        <v>35</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.537414139366124</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.4082101965457433</v>
       </c>
     </row>
@@ -4482,72 +4452,66 @@
         <v>1.72509562204249e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.003354693140666973</v>
+        <v>5.714287960629947e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.579203818443839</v>
+        <v>5.202747604215812e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.714287960629947e-07</v>
+        <v>-0.01899082410648825</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5.202747604215812e-06</v>
+        <v>0.1538564257892787</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.01899082410648825</v>
+        <v>0.02400952044232278</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1538564257892787</v>
+        <v>1.88320188817292</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02400952044232278</v>
+        <v>2.175665323004192</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.875985545801788</v>
+        <v>4.181469428495604</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.175665323004192</v>
+        <v>1.802470623503393e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.181469428495604</v>
+        <v>257807360.763004</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.802470623503393e-15</v>
+        <v>4.622083752456132e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>257807360.763004</v>
+        <v>119.8005525644809</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.622083752456132e-07</v>
+        <v>0.0001237936250466812</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>119.8005525644809</v>
+        <v>8.038022414687536</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001237936250466812</v>
+        <v>1.414461157928499</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.038022414687536</v>
+        <v>0.007998281892683982</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.414461157928499</v>
+        <v>3.161261233794865</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.007998281892683982</v>
+        <v>0.9563281727553583</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.161261233794865</v>
+        <v>1.466540801986038</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9563281727553583</v>
+        <v>39</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.466540801986038</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.403821679089077</v>
       </c>
     </row>
@@ -4562,72 +4526,66 @@
         <v>1.694245377919808e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.02881395683834051</v>
+        <v>4.866099991021387e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.601897599354354</v>
+        <v>5.200212358408521e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.866099991021387e-07</v>
+        <v>-0.01097645366396523</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5.200212358408521e-06</v>
+        <v>0.1416875533530044</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.01097645366396523</v>
+        <v>0.02018157520632132</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1416875533530044</v>
+        <v>1.881545924909416</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02018157520632132</v>
+        <v>2.220464902061818</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.876995321008862</v>
+        <v>4.262491338622253</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.220464902061818</v>
+        <v>1.73459874635069e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.262491338622253</v>
+        <v>265239490.333264</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.73459874635069e-15</v>
+        <v>4.488830452069964e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>265239490.333264</v>
+        <v>122.0324688563399</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.488830452069964e-07</v>
+        <v>0.0001259862711945622</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>122.0324688563399</v>
+        <v>8.281931800362157</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001259862711945622</v>
+        <v>1.416405286801674</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.281931800362157</v>
+        <v>0.00864144802339822</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.416405286801674</v>
+        <v>3.040041395350983</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.00864144802339822</v>
+        <v>0.9556102469635084</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.040041395350983</v>
+        <v>1.476228245247452</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9556102469635084</v>
+        <v>39</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.476228245247452</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.3943568850609708</v>
       </c>
     </row>
@@ -4642,72 +4600,66 @@
         <v>1.681649567275818e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.02987444083194873</v>
+        <v>4.866099991021387e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.592765312052496</v>
+        <v>5.198953607048696e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.866099991021387e-07</v>
+        <v>-0.004177339791926125</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>5.198953607048696e-06</v>
+        <v>0.1321606502725881</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.004177339791926125</v>
+        <v>0.01747448037522049</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1321606502725881</v>
+        <v>1.888316347183281</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01747448037522049</v>
+        <v>2.247371650383836</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.879789116245394</v>
+        <v>4.348512186225205</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.247371650383836</v>
+        <v>1.66665098859727e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.348512186225205</v>
+        <v>269111750.3630981</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.66665098859727e-15</v>
+        <v>4.39963947373166e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>269111750.3630981</v>
+        <v>120.7007548822499</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.39963947373166e-07</v>
+        <v>0.0001296224332674715</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>120.7007548822499</v>
+        <v>8.306275976197135</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001296224332674715</v>
+        <v>1.38958446270544</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.306275976197135</v>
+        <v>0.0089431987546249</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.38958446270544</v>
+        <v>3.032771793392659</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0089431987546249</v>
+        <v>0.9559682945348411</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.032771793392659</v>
+        <v>1.483112831901385</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9559682945348411</v>
+        <v>39</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.483112831901385</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.3748416322497752</v>
       </c>
     </row>
@@ -5084,7 +5036,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.855517371438705</v>
+        <v>1.901363148179237</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.753994766121046</v>
@@ -5173,7 +5125,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.893942757894297</v>
+        <v>1.940028109045324</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.707397890371149</v>
@@ -5262,7 +5214,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.855405703358304</v>
+        <v>1.902415614637528</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.900442466186529</v>
@@ -5351,7 +5303,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.900468513077702</v>
+        <v>1.941438335821426</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.780968433485222</v>
@@ -5440,7 +5392,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.902667646799</v>
+        <v>1.94237211964075</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.655459390483968</v>
@@ -5529,7 +5481,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.905121645423427</v>
+        <v>1.942890736298398</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.848597061796527</v>
@@ -5618,7 +5570,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.900369283315652</v>
+        <v>1.938179240897908</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.731366576141168</v>
@@ -5707,7 +5659,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.90147742030376</v>
+        <v>1.93839451239801</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.833410354667288</v>
@@ -5796,7 +5748,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.909728805713347</v>
+        <v>1.944711318978208</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.741582509912655</v>
@@ -5885,7 +5837,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.906655799466192</v>
+        <v>1.941953173857925</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.81218862814525</v>
@@ -5974,7 +5926,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.903439006571933</v>
+        <v>1.937424933576215</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.791063982261069</v>
@@ -6063,7 +6015,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.894359649292645</v>
+        <v>1.930076060756011</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.6720462557827</v>
@@ -6152,7 +6104,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.874436857976223</v>
+        <v>1.907358122332313</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.651842190083156</v>
@@ -6241,7 +6193,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.873482164286992</v>
+        <v>1.907552382588662</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.772840344059974</v>
@@ -6330,7 +6282,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.871538820201996</v>
+        <v>1.904041815745095</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.906312625727528</v>
@@ -6419,7 +6371,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.864501317050065</v>
+        <v>1.891637522385835</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.884197074447351</v>
@@ -6508,7 +6460,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.860559981870812</v>
+        <v>1.884461769444906</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.997725394712163</v>
@@ -6597,7 +6549,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.87795347770346</v>
+        <v>1.894291748129984</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.781392962068068</v>
@@ -6686,7 +6638,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.878143109295654</v>
+        <v>1.897861387399203</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.663117078455789</v>
@@ -6775,7 +6727,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.874529982733392</v>
+        <v>1.896920316262378</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.877770266199404</v>
@@ -6864,7 +6816,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.876605370473993</v>
+        <v>1.901090946458911</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.755403034969591</v>
@@ -6953,7 +6905,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.883427464778068</v>
+        <v>1.91186124170383</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.743272194205253</v>
@@ -7042,7 +6994,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.883268818093309</v>
+        <v>1.912774154767901</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.820873262839772</v>
@@ -7131,7 +7083,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.881423264532211</v>
+        <v>1.912323689113431</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.667578199648825</v>
@@ -7220,7 +7172,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.888658057464783</v>
+        <v>1.919577508239135</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.776929456098571</v>
@@ -7309,7 +7261,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.893931016566184</v>
+        <v>1.921376938630223</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.756579551658663</v>
@@ -7398,7 +7350,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.89565278744436</v>
+        <v>1.922932042916307</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.776038167682501</v>
@@ -7487,7 +7439,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.916003803340575</v>
+        <v>1.943189719147824</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.759485996819945</v>
@@ -7576,7 +7528,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.913738210219663</v>
+        <v>1.938521746058447</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.592007709086128</v>
@@ -7665,7 +7617,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.918117592209841</v>
+        <v>1.937161171172203</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.70920913135819</v>
@@ -7754,7 +7706,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.925458463700544</v>
+        <v>1.94309261976508</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.822105804965322</v>
@@ -7843,7 +7795,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.923126535665759</v>
+        <v>1.935181182211039</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.866892764287909</v>
@@ -7932,7 +7884,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.947508572697476</v>
+        <v>1.959014714398776</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.73744046190547</v>
@@ -8021,7 +7973,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.947176263690727</v>
+        <v>1.956643798820755</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.71348554780328</v>
@@ -8110,7 +8062,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.934776309345653</v>
+        <v>1.938199528023358</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.611398098795484</v>
@@ -8199,7 +8151,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.927640272643237</v>
+        <v>1.926597425075102</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.55271286153186</v>
@@ -8288,7 +8240,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.925321477074711</v>
+        <v>1.918859943189464</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.24822284925514</v>
@@ -8377,7 +8329,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.919312910437443</v>
+        <v>1.913732737972047</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.692982769985995</v>
@@ -8466,7 +8418,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.919142632712895</v>
+        <v>1.913602002732549</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.10123938898454</v>
@@ -8555,7 +8507,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.914517871922852</v>
+        <v>1.907058282381494</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.84104255371385</v>
@@ -8644,7 +8596,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.917777640916945</v>
+        <v>1.909850827788651</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.727500647348939</v>
@@ -8733,7 +8685,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.918563174484892</v>
+        <v>1.90530897093519</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.41808591356805</v>
@@ -8822,7 +8774,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.921757663090808</v>
+        <v>1.903270474225287</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.54886108972935</v>
@@ -8911,7 +8863,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.921969832133827</v>
+        <v>1.904321992410376</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.908716501633255</v>
@@ -9000,7 +8952,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.919485854041563</v>
+        <v>1.901143285980183</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.233184210743977</v>
@@ -9089,7 +9041,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.916895503116118</v>
+        <v>1.899070983168812</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.509638771401056</v>
@@ -9178,7 +9130,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.892335880591175</v>
+        <v>1.884527081758745</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.917676295747265</v>
@@ -9267,7 +9219,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.895974578572406</v>
+        <v>1.881955849287064</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.923582716294307</v>
@@ -9356,7 +9308,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.895951789785364</v>
+        <v>1.880408397729648</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.849456032480264</v>
@@ -9445,7 +9397,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.908446701369516</v>
+        <v>1.892401685389578</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.908168311467409</v>
@@ -9534,7 +9486,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.915511276988941</v>
+        <v>1.895382910474358</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.939264247446256</v>
@@ -9820,7 +9772,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.742545454880334</v>
+        <v>1.771254685615294</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.181137554063501</v>
@@ -9909,7 +9861,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.728184550715735</v>
+        <v>1.755705103166716</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.531673142862678</v>
@@ -9998,7 +9950,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.748058024095096</v>
+        <v>1.766638642788237</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.879168304304924</v>
@@ -10087,7 +10039,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.767707473107886</v>
+        <v>1.786134579670843</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.253294703746199</v>
@@ -10176,7 +10128,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.772211099316175</v>
+        <v>1.783138129674425</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.105744876843639</v>
@@ -10265,7 +10217,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.77904814235999</v>
+        <v>1.780359741572832</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.044404843051019</v>
@@ -10354,7 +10306,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.784662181856739</v>
+        <v>1.789091790793391</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.365292201976814</v>
@@ -10443,7 +10395,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.772271344864201</v>
+        <v>1.77696445971656</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.40631575040929</v>
@@ -10532,7 +10484,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.754495260017186</v>
+        <v>1.763689404920748</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.303364989709871</v>
@@ -10621,7 +10573,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.749943783423428</v>
+        <v>1.762655336260144</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.189867247924698</v>
@@ -10710,7 +10662,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.742103887887392</v>
+        <v>1.753401476355869</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.429754823147508</v>
@@ -10799,7 +10751,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.749743660856101</v>
+        <v>1.756859758393966</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.355118938916675</v>
@@ -10888,7 +10840,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.748407975938729</v>
+        <v>1.753107050128108</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.280548945594308</v>
@@ -10977,7 +10929,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.762274909136352</v>
+        <v>1.764893775970742</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.088948914657393</v>
@@ -11066,7 +11018,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.757875940204985</v>
+        <v>1.761890777762947</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.344951595238535</v>
@@ -11155,7 +11107,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.748247567881581</v>
+        <v>1.753513752583163</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.305790952460113</v>
@@ -11244,7 +11196,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.751742103611296</v>
+        <v>1.753067758524078</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.282117603311555</v>
@@ -11333,7 +11285,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.728599241796947</v>
+        <v>1.722841070415998</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.41911372887016</v>
@@ -11422,7 +11374,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.735568228373736</v>
+        <v>1.728359251968863</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.936968289307991</v>
@@ -11511,7 +11463,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.735405036868567</v>
+        <v>1.732651378330994</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.074850527226998</v>
@@ -11600,7 +11552,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.742944232148434</v>
+        <v>1.742095037036289</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.374170990752309</v>
@@ -11689,7 +11641,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.749066031758277</v>
+        <v>1.746843065439424</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.374823015884103</v>
@@ -11778,7 +11730,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.764656133172991</v>
+        <v>1.756970520817869</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.415500384881699</v>
@@ -11867,7 +11819,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.773153741327833</v>
+        <v>1.762890534530735</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.319951929903912</v>
@@ -11956,7 +11908,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.767374578998055</v>
+        <v>1.755590880430014</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.422450350245756</v>
@@ -12045,7 +11997,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.767274808773274</v>
+        <v>1.75568950344486</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.918827638145925</v>
@@ -12134,7 +12086,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.772874130612943</v>
+        <v>1.76115291006742</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.158457653064253</v>
@@ -12223,7 +12175,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.772566973982391</v>
+        <v>1.759782189987212</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.320375987158422</v>
@@ -12312,7 +12264,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.757765810714025</v>
+        <v>1.743541919206306</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.251941636128722</v>
@@ -12401,7 +12353,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.759177622670733</v>
+        <v>1.744871141244625</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.281431501493427</v>
@@ -12490,7 +12442,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.753834972084486</v>
+        <v>1.74495105755186</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.199911994528027</v>
@@ -12579,7 +12531,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.740398575160701</v>
+        <v>1.732405745139385</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.95692719363793</v>
@@ -12668,7 +12620,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.761226556686187</v>
+        <v>1.761089330306458</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.635552654762399</v>
@@ -12757,7 +12709,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.755270906181043</v>
+        <v>1.757238100549084</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.566669267532474</v>
@@ -12846,7 +12798,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.76356531693593</v>
+        <v>1.766146346428523</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.116002332406475</v>
@@ -12935,7 +12887,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.766518280242254</v>
+        <v>1.770885978242817</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.799170534858993</v>
@@ -13024,7 +12976,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.754428156047791</v>
+        <v>1.756976200351064</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.516915294591196</v>
@@ -13113,7 +13065,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.754997031715449</v>
+        <v>1.760290611049032</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.519914406416567</v>
@@ -13202,7 +13154,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.742721813475491</v>
+        <v>1.746130883226015</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.415579169943169</v>
@@ -13291,7 +13243,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.743896105826196</v>
+        <v>1.741867936011402</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.697828514501648</v>
@@ -13380,7 +13332,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.750757382945275</v>
+        <v>1.740278369074007</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.498620213039515</v>
@@ -13469,7 +13421,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.754685797637104</v>
+        <v>1.742790296765062</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.43179458621261</v>
@@ -13558,7 +13510,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.754861868808403</v>
+        <v>1.742026438662169</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.953108882986959</v>
@@ -13647,7 +13599,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.752095062175614</v>
+        <v>1.744498371742254</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.256702904205642</v>
@@ -13736,7 +13688,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.749407033111986</v>
+        <v>1.736821386778371</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.82909260672796</v>
@@ -13825,7 +13777,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.760381176091059</v>
+        <v>1.741382433436675</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.461142124025626</v>
@@ -13914,7 +13866,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.761305457123425</v>
+        <v>1.743273580270464</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.059311327213388</v>
@@ -14003,7 +13955,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.770010474100941</v>
+        <v>1.748742746475135</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.016882275046974</v>
@@ -14092,7 +14044,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.771527290726222</v>
+        <v>1.742853402869191</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.807964286913908</v>
@@ -14181,7 +14133,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.766777991475891</v>
+        <v>1.735602567952649</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.437078666157299</v>
@@ -14270,7 +14222,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.756880073338639</v>
+        <v>1.719886595816814</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.56365224665163</v>
@@ -14556,7 +14508,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.806126306647472</v>
+        <v>1.829293666233794</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.005872872651868</v>
@@ -14645,7 +14597,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.835390865548755</v>
+        <v>1.859766233698637</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.793435076905619</v>
@@ -14734,7 +14686,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.826263638768137</v>
+        <v>1.849855235058164</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.05953326287417</v>
@@ -14823,7 +14775,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.861799182708455</v>
+        <v>1.880349137231992</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.519324811021153</v>
@@ -14912,7 +14864,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.860584993222443</v>
+        <v>1.883777415111451</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.190530224211745</v>
@@ -15001,7 +14953,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.865383289392294</v>
+        <v>1.879481411802337</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.310283220798931</v>
@@ -15090,7 +15042,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.864651089737477</v>
+        <v>1.879893441936728</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.428550984981451</v>
@@ -15179,7 +15131,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.864192654103479</v>
+        <v>1.882210973152241</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.047830011401013</v>
@@ -15268,7 +15220,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.868260211717681</v>
+        <v>1.890582208884924</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.201108967943531</v>
@@ -15357,7 +15309,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.847458851065423</v>
+        <v>1.873970976500621</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.319627658155855</v>
@@ -15446,7 +15398,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.844538396800427</v>
+        <v>1.868069092003013</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.366929037918798</v>
@@ -15535,7 +15487,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.830187285372192</v>
+        <v>1.855670456682194</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.617496151114975</v>
@@ -15624,7 +15576,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.827209453744174</v>
+        <v>1.847290493542472</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.24829086563181</v>
@@ -15713,7 +15665,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.826977973694754</v>
+        <v>1.84522243832228</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.135555555984703</v>
@@ -15802,7 +15754,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.828198241758696</v>
+        <v>1.841540655163162</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.356850986266285</v>
@@ -15891,7 +15843,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.836288176393776</v>
+        <v>1.848796958113563</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.393862842104414</v>
@@ -15980,7 +15932,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.836852970636824</v>
+        <v>1.84435909892444</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.075973968769834</v>
@@ -16069,7 +16021,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.835426159852137</v>
+        <v>1.839902214993839</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.692877237045093</v>
@@ -16158,7 +16110,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.838899026053937</v>
+        <v>1.848308860874164</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.54056055174687</v>
@@ -16247,7 +16199,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.835321729450311</v>
+        <v>1.844881394684874</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.381806761598589</v>
@@ -16336,7 +16288,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.841517582819409</v>
+        <v>1.849800117465138</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.419633964564553</v>
@@ -16425,7 +16377,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.841842430207269</v>
+        <v>1.852469012782363</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.070018334110701</v>
@@ -16514,7 +16466,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.843161183719411</v>
+        <v>1.850868440073702</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.282871067581671</v>
@@ -16603,7 +16555,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.834245430306067</v>
+        <v>1.841976628403552</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.2527312296241</v>
@@ -16692,7 +16644,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.851687133174102</v>
+        <v>1.85395992729799</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.044640164872857</v>
@@ -16781,7 +16733,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.854925177018198</v>
+        <v>1.858128830896905</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.043808996220541</v>
@@ -16870,7 +16822,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.864147219698775</v>
+        <v>1.866736033079229</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.386680303323036</v>
@@ -16959,7 +16911,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.879157799527332</v>
+        <v>1.881073660010462</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.414658783721131</v>
@@ -17048,7 +17000,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.854856073067773</v>
+        <v>1.856866110649076</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.855116355633382</v>
@@ -17137,7 +17089,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.851672276957424</v>
+        <v>1.8550570220238</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.64690531142138</v>
@@ -17226,7 +17178,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.849100776410441</v>
+        <v>1.853556622177259</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.585675960565794</v>
@@ -17315,7 +17267,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.84420753171467</v>
+        <v>1.844403530108805</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.344554529950737</v>
@@ -17404,7 +17356,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.856162852218591</v>
+        <v>1.855601122834613</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.254670962901185</v>
@@ -17493,7 +17445,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.855690730403876</v>
+        <v>1.853873198928069</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.46111411794852</v>
@@ -17582,7 +17534,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.849288804080449</v>
+        <v>1.84772968980713</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.73409355460142</v>
@@ -17671,7 +17623,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.845812895830269</v>
+        <v>1.845084520263349</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.53130077258022</v>
@@ -17760,7 +17712,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.844501018988788</v>
+        <v>1.839396681236562</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.701018785240883</v>
@@ -17849,7 +17801,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.83383745079205</v>
+        <v>1.8306587007037</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.49761344057264</v>
@@ -17938,7 +17890,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.841091452505313</v>
+        <v>1.837026540247329</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.363884049604066</v>
@@ -18027,7 +17979,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.836835392595527</v>
+        <v>1.829544542119298</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.249892683851633</v>
@@ -18116,7 +18068,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.832792728235765</v>
+        <v>1.818948810323252</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.485439616804956</v>
@@ -18205,7 +18157,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.83214987088968</v>
+        <v>1.815297790557522</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.113552129228126</v>
@@ -18294,7 +18246,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.829961762032507</v>
+        <v>1.812360377979671</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.478155082483835</v>
@@ -18383,7 +18335,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.850321326112433</v>
+        <v>1.821261505286996</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.21716492997163</v>
@@ -18472,7 +18424,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.835920133147204</v>
+        <v>1.807291884529524</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.086343902983772</v>
@@ -18561,7 +18513,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.834099027314336</v>
+        <v>1.805468641776077</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.057063155114415</v>
@@ -18650,7 +18602,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.821781623193509</v>
+        <v>1.794736240390236</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.827189926963563</v>
@@ -18739,7 +18691,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.833659454299911</v>
+        <v>1.806743479944394</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.422631271892866</v>
@@ -18828,7 +18780,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.836633754128632</v>
+        <v>1.806332238863778</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.298182725129904</v>
@@ -18917,7 +18869,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.842292256983213</v>
+        <v>1.81416549759566</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.587823565949571</v>
@@ -19006,7 +18958,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.839655283646482</v>
+        <v>1.811781522253206</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.539687094925927</v>
@@ -19292,7 +19244,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.879505311961857</v>
+        <v>1.864665798255163</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.759953574826239</v>
@@ -19381,7 +19333,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.897753269742079</v>
+        <v>1.883952006193548</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.359438275220905</v>
@@ -19470,7 +19422,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.890723223691543</v>
+        <v>1.878999021679523</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.415216168826517</v>
@@ -19559,7 +19511,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.898694028173615</v>
+        <v>1.884854819846886</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.096494188434238</v>
@@ -19648,7 +19600,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.894356685995178</v>
+        <v>1.888250072964527</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.906049876753682</v>
@@ -19737,7 +19689,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.897173140397729</v>
+        <v>1.892647493539054</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.789809552037979</v>
@@ -19826,7 +19778,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.893945772603008</v>
+        <v>1.8885413659056</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.787659971502004</v>
@@ -19915,7 +19867,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.897821124218938</v>
+        <v>1.889295313947646</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.746683752984765</v>
@@ -20004,7 +19956,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.896814026116676</v>
+        <v>1.895558152961532</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.996749990470898</v>
@@ -20093,7 +20045,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.890987104143895</v>
+        <v>1.890715305810603</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.047125277395264</v>
@@ -20182,7 +20134,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.897187691241945</v>
+        <v>1.897347468403016</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.030985228218767</v>
@@ -20271,7 +20223,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.889952108822842</v>
+        <v>1.892947956021085</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.267783027873389</v>
@@ -20360,7 +20312,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.89024384384188</v>
+        <v>1.892292936131133</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.093434355371067</v>
@@ -20449,7 +20401,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.884302773349462</v>
+        <v>1.887997046050982</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.661949143925636</v>
@@ -20538,7 +20490,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.873711865468763</v>
+        <v>1.877768240406213</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.018433258796213</v>
@@ -20627,7 +20579,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.868794387208949</v>
+        <v>1.871700650785266</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.253125302235198</v>
@@ -20716,7 +20668,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.864686087764166</v>
+        <v>1.867748452132661</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.161556245903099</v>
@@ -20805,7 +20757,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.87105064905279</v>
+        <v>1.872751165641405</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.608406794433026</v>
@@ -20894,7 +20846,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.864359479054703</v>
+        <v>1.864442162835247</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.166969170240455</v>
@@ -20983,7 +20935,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.845433582892803</v>
+        <v>1.855393165714885</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.017604936454446</v>
@@ -21072,7 +21024,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.841333503194521</v>
+        <v>1.854513592092251</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.027664263520822</v>
@@ -21161,7 +21113,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.841566166332574</v>
+        <v>1.861011374092157</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.588334550555327</v>
@@ -21250,7 +21202,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.835813572532677</v>
+        <v>1.854721854775093</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.740357829173107</v>
@@ -21339,7 +21291,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.836965947401635</v>
+        <v>1.855740398125931</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.025988959853916</v>
@@ -21428,7 +21380,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.83120084286746</v>
+        <v>1.853340865273205</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.953912614335109</v>
@@ -21517,7 +21469,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.832629078014486</v>
+        <v>1.851342670550526</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.989227861098746</v>
@@ -21606,7 +21558,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.833015644418084</v>
+        <v>1.850882782545139</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.885159288747007</v>
@@ -21695,7 +21647,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.836078725522313</v>
+        <v>1.852670393830228</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.867381863935319</v>
@@ -21784,7 +21736,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.83840157826739</v>
+        <v>1.848271749782422</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.359168822139303</v>
@@ -21873,7 +21825,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.843444770792758</v>
+        <v>1.848856941443358</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.766073174847643</v>
@@ -21962,7 +21914,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.847986969219708</v>
+        <v>1.85173447624579</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.088866947223825</v>
@@ -22051,7 +22003,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.850235112898885</v>
+        <v>1.848825860271265</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.757807547920235</v>
@@ -22140,7 +22092,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.843461367129785</v>
+        <v>1.842710204615849</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.913580700851804</v>
@@ -22229,7 +22181,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.839150365697233</v>
+        <v>1.853238890259788</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.858268557274635</v>
@@ -22318,7 +22270,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.855616156329703</v>
+        <v>1.862312553836618</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.557464833796339</v>
@@ -22407,7 +22359,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.857579304226826</v>
+        <v>1.85917737520144</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.700266274573621</v>
@@ -22496,7 +22448,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.859992498044766</v>
+        <v>1.857002377567059</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.651067130251506</v>
@@ -22585,7 +22537,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.867510301342001</v>
+        <v>1.866649404220388</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.575209651213262</v>
@@ -22674,7 +22626,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.870394623023714</v>
+        <v>1.866702612865467</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.395817383828929</v>
@@ -22763,7 +22715,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.871658683368497</v>
+        <v>1.868458084007444</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.883738483490207</v>
@@ -22852,7 +22804,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.879025299022667</v>
+        <v>1.87427785484244</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.687405415565664</v>
@@ -22941,7 +22893,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.878223931292942</v>
+        <v>1.871797797820858</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.937689431259311</v>
@@ -23030,7 +22982,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.874879601652827</v>
+        <v>1.871387119093095</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.863357737148963</v>
@@ -23119,7 +23071,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.879147620686015</v>
+        <v>1.876783288503492</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.889392360377045</v>
@@ -23208,7 +23160,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.856328423181458</v>
+        <v>1.859271697052973</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.184407895185513</v>
@@ -23297,7 +23249,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.856922969484225</v>
+        <v>1.859285907799896</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.623657241595527</v>
@@ -23386,7 +23338,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.834353138540329</v>
+        <v>1.842459260776762</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.462466816524164</v>
@@ -23475,7 +23427,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.848532709465325</v>
+        <v>1.848715157752237</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.036887284801912</v>
@@ -23564,7 +23516,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.852917871212674</v>
+        <v>1.845925110259209</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.497093365943874</v>
@@ -23653,7 +23605,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.856783762351029</v>
+        <v>1.843212849201708</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.408622168081114</v>
@@ -23742,7 +23694,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.863446638456008</v>
+        <v>1.846282033514739</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.391886194210782</v>
@@ -24028,7 +23980,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.690314886464997</v>
+        <v>1.711312349284958</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.661202384260978</v>
@@ -24117,7 +24069,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.6967488464812</v>
+        <v>1.712514331789502</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.782009793661448</v>
@@ -24206,7 +24158,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.700485991479448</v>
+        <v>1.714727068564953</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.755676185647794</v>
@@ -24295,7 +24247,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.723284729771139</v>
+        <v>1.739689648040871</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.091135018637129</v>
@@ -24384,7 +24336,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.71934809688815</v>
+        <v>1.736238050882265</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.193530468784021</v>
@@ -24473,7 +24425,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.723514276435249</v>
+        <v>1.741678908058023</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.150787833952526</v>
@@ -24562,7 +24514,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.72215320731339</v>
+        <v>1.740157508855906</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.084756404103028</v>
@@ -24651,7 +24603,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.712929904590513</v>
+        <v>1.734532624913695</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.229121462127559</v>
@@ -24740,7 +24692,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.711360992142831</v>
+        <v>1.725837433342584</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.092881572753118</v>
@@ -24829,7 +24781,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.715848239201222</v>
+        <v>1.725262292440932</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.087768046561055</v>
@@ -24918,7 +24870,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.711383031055465</v>
+        <v>1.717199644112136</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.076880434007134</v>
@@ -25007,7 +24959,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.719211405326541</v>
+        <v>1.722962469235696</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.558638716992452</v>
@@ -25096,7 +25048,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.70959709422655</v>
+        <v>1.710770703416792</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.599359787994019</v>
@@ -25185,7 +25137,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.686573509428664</v>
+        <v>1.690192025875111</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.401865885396656</v>
@@ -25274,7 +25226,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.674064088447631</v>
+        <v>1.675570122312173</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.313152539532158</v>
@@ -25363,7 +25315,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.664238710482993</v>
+        <v>1.66897169831323</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.289081806782105</v>
@@ -25452,7 +25404,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.652217258821738</v>
+        <v>1.657942019903863</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.273647512277798</v>
@@ -25541,7 +25493,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.652665724891563</v>
+        <v>1.653014353608576</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.272825011560767</v>
@@ -25630,7 +25582,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.657714434364213</v>
+        <v>1.656976078371392</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.15965156130996</v>
@@ -25719,7 +25671,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.649874199552526</v>
+        <v>1.651257532136382</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.30753010937028</v>
@@ -25808,7 +25760,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.649310939803227</v>
+        <v>1.650443534282043</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.0706626440768</v>
@@ -25897,7 +25849,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.646722495542205</v>
+        <v>1.648071113522506</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.785627072209411</v>
@@ -25986,7 +25938,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.657863741498751</v>
+        <v>1.660523236653769</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.707234465487204</v>
@@ -26075,7 +26027,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.658442258963643</v>
+        <v>1.662196548790545</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.859517068605987</v>
@@ -26164,7 +26116,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.661965028171656</v>
+        <v>1.666290646906062</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.012477390248493</v>
@@ -26253,7 +26205,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.662649780528813</v>
+        <v>1.663852729600855</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.972582340136428</v>
@@ -26342,7 +26294,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.670019759472056</v>
+        <v>1.673399892715661</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.913923802310029</v>
@@ -26431,7 +26383,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.671823021544009</v>
+        <v>1.673424112247462</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.826253802685702</v>
@@ -26520,7 +26472,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.691675259937951</v>
+        <v>1.686374492906159</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.024882916746434</v>
@@ -26609,7 +26561,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.703887453210015</v>
+        <v>1.695104356446849</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.921236556394111</v>
@@ -26698,7 +26650,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.71726932000478</v>
+        <v>1.701417572952265</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.830557880056766</v>
@@ -26787,7 +26739,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.732980020759627</v>
+        <v>1.717380697806402</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.030228636008724</v>
@@ -26876,7 +26828,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.750560454490276</v>
+        <v>1.737090789270089</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.25874604036093</v>
@@ -26965,7 +26917,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.74924122399113</v>
+        <v>1.734972412176341</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.093602950752888</v>
@@ -27054,7 +27006,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.743565688180171</v>
+        <v>1.734902309607868</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.199668230039542</v>
@@ -27143,7 +27095,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.748782107415247</v>
+        <v>1.734825179720205</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.586703759327757</v>
@@ -27232,7 +27184,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.742506540146158</v>
+        <v>1.728989197214157</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.290352257186703</v>
@@ -27321,7 +27273,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.739365582633188</v>
+        <v>1.716427234002031</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.39326904641218</v>
@@ -27410,7 +27362,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.737375526927246</v>
+        <v>1.709510263680679</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.604708262920291</v>
@@ -27499,7 +27451,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.720218553249934</v>
+        <v>1.696855302996227</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.004626897342322</v>
@@ -27588,7 +27540,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.723417771647022</v>
+        <v>1.704422164847126</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.897305393477703</v>
@@ -27677,7 +27629,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.710929007189598</v>
+        <v>1.692349609946164</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.659764982952133</v>
@@ -27766,7 +27718,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.707103185524042</v>
+        <v>1.687015649195447</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.75339975584246</v>
@@ -27855,7 +27807,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.711218116259369</v>
+        <v>1.696208132793053</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.629645589655777</v>
@@ -27944,7 +27896,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.703223172391896</v>
+        <v>1.687635197630727</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.821894183817585</v>
@@ -28033,7 +27985,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.674854191651093</v>
+        <v>1.662925711774337</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.055418341090985</v>
@@ -28122,7 +28074,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.666184976975591</v>
+        <v>1.651682850381918</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.994639579639933</v>
@@ -28211,7 +28163,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.675014713234309</v>
+        <v>1.655584791162285</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.133828727986355</v>
@@ -28300,7 +28252,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.672943676325798</v>
+        <v>1.655605459195807</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.876140468954598</v>
@@ -28389,7 +28341,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.684726595703767</v>
+        <v>1.661806716230104</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.036982153834679</v>
@@ -28478,7 +28430,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.690792611373067</v>
+        <v>1.667948004874863</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.920935135804074</v>
@@ -28764,7 +28716,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.858816363170173</v>
+        <v>1.884588490904141</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.35510732982351</v>
@@ -28853,7 +28805,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.877442963747786</v>
+        <v>1.905713761898982</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.510306079805751</v>
@@ -28942,7 +28894,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.852501894438932</v>
+        <v>1.881353159178585</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.418698428919304</v>
@@ -29031,7 +28983,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.861322258302801</v>
+        <v>1.890296138475771</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.55385440614798</v>
@@ -29120,7 +29072,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.851538885938819</v>
+        <v>1.881883458120239</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.025409081767061</v>
@@ -29209,7 +29161,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.851636209052813</v>
+        <v>1.882181021372315</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.31343309488073</v>
@@ -29298,7 +29250,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.843941424010365</v>
+        <v>1.876723932506634</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.148730515024698</v>
@@ -29387,7 +29339,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.843443703517736</v>
+        <v>1.883410503000083</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.369208183020321</v>
@@ -29476,7 +29428,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.845566135238131</v>
+        <v>1.889014176060301</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.085259727878465</v>
@@ -29565,7 +29517,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.851758904956736</v>
+        <v>1.892761962353901</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.169604903083214</v>
@@ -29654,7 +29606,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.855641961693288</v>
+        <v>1.893507894956492</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.203325065342609</v>
@@ -29743,7 +29695,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.857431300320552</v>
+        <v>1.896488344347624</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.953169358994623</v>
@@ -29832,7 +29784,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.840995226543979</v>
+        <v>1.87879342129745</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.28445224826809</v>
@@ -29921,7 +29873,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.839830881514099</v>
+        <v>1.872649708154478</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.467851108380913</v>
@@ -30010,7 +29962,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.830050892262854</v>
+        <v>1.863753761690251</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.324619273659624</v>
@@ -30099,7 +30051,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.831277254317372</v>
+        <v>1.861269368708319</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.996137472247598</v>
@@ -30188,7 +30140,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.82484478715657</v>
+        <v>1.854342036298968</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.243243078563925</v>
@@ -30277,7 +30229,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.841230822720311</v>
+        <v>1.870178693505115</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.473226102967143</v>
@@ -30366,7 +30318,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.844196861775547</v>
+        <v>1.866700158193024</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.806873500461997</v>
@@ -30455,7 +30407,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.847808085887111</v>
+        <v>1.869108051906623</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.490265369278167</v>
@@ -30544,7 +30496,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.852240657693276</v>
+        <v>1.875276313511467</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.076399235549196</v>
@@ -30633,7 +30585,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.851866652156342</v>
+        <v>1.876087212502737</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.138832183730418</v>
@@ -30722,7 +30674,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.85068911775695</v>
+        <v>1.870355155232372</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.336608019090145</v>
@@ -30811,7 +30763,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.857079875376887</v>
+        <v>1.873620847771502</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.006401992327789</v>
@@ -30900,7 +30852,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.851147143129007</v>
+        <v>1.870332768108375</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.293178944617296</v>
@@ -30989,7 +30941,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.853123824975916</v>
+        <v>1.870108627079526</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.4345577864665</v>
@@ -31078,7 +31030,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.853423757252858</v>
+        <v>1.867133123463314</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.419050306812817</v>
@@ -31167,7 +31119,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.867110664982609</v>
+        <v>1.880986222856902</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.704554465402784</v>
@@ -31256,7 +31208,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.866684096761851</v>
+        <v>1.883419634984206</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.895107336298599</v>
@@ -31345,7 +31297,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.869627600714683</v>
+        <v>1.885188320635394</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.893678516494569</v>
@@ -31434,7 +31386,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.870364642435974</v>
+        <v>1.88343374217169</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.740994343580568</v>
@@ -31523,7 +31475,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.872384853367146</v>
+        <v>1.883735737248159</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.754637757804264</v>
@@ -31612,7 +31564,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.880461092810515</v>
+        <v>1.888085586076357</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.398696451580149</v>
@@ -31701,7 +31653,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.88016948156862</v>
+        <v>1.894158710167378</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.081976837135302</v>
@@ -31790,7 +31742,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.881170123104929</v>
+        <v>1.89597718764752</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.509899477173836</v>
@@ -31879,7 +31831,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.87639450183152</v>
+        <v>1.889368754995847</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.104837354977851</v>
@@ -31968,7 +31920,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.868202403607691</v>
+        <v>1.881721685858221</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.136506767834224</v>
@@ -32057,7 +32009,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.868935353323178</v>
+        <v>1.880749262634114</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.581824226867699</v>
@@ -32146,7 +32098,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.871594325295685</v>
+        <v>1.883811658445068</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.493608623800149</v>
@@ -32235,7 +32187,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.869199328467477</v>
+        <v>1.882763266197324</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.339505946197484</v>
@@ -32324,7 +32276,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.871646418832127</v>
+        <v>1.889578956499099</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.421380817870912</v>
@@ -32413,7 +32365,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.873161331719302</v>
+        <v>1.893246388143836</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.332814210763368</v>
@@ -32502,7 +32454,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.873824581451424</v>
+        <v>1.890069747533893</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.318940175998796</v>
@@ -32591,7 +32543,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.881133774351843</v>
+        <v>1.898774925497192</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.208262426372723</v>
@@ -32680,7 +32632,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.881402980980373</v>
+        <v>1.897783956405316</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.993928047703557</v>
@@ -32769,7 +32721,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.88336668638136</v>
+        <v>1.903812814740991</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.234881210722001</v>
@@ -32858,7 +32810,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.866054115514187</v>
+        <v>1.884734449545657</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.833653061034613</v>
@@ -32947,7 +32899,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.868237631505026</v>
+        <v>1.892264175928698</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.761941400509656</v>
@@ -33036,7 +32988,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.872293049736147</v>
+        <v>1.895715141621125</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.409528450710908</v>
@@ -33125,7 +33077,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.871006851027213</v>
+        <v>1.889917329501454</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.541484807462615</v>
@@ -33214,7 +33166,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.878687881479201</v>
+        <v>1.893093611386578</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.318330340937432</v>
